--- a/pred_ohlcv/54_21/2019-10-30 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 CTXC ohlcv.xlsx
@@ -1458,7 +1458,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>60792.38930000001</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41192.38930000001</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-76903.8085</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-100429.9348</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-93450.4105</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-106943.8675</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-89036.855</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>48617.0671606122</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>57997.2009606122</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>76405.4185606122</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>66009.50166061221</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>88568.81086061221</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>87047.41286061221</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>84330.78656061221</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>64707.5701606122</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>18931.669343183</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>50872.42002575382</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>47674.73112575382</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 CTXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 CTXC ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>73005.84590000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>68134.12710000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>59011.85210000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>60792.38930000001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>41192.38930000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-76903.8085</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-76914.8085</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-76914.8085</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-100429.9348</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-93450.4105</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-106943.8675</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-89036.855</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-89036.855</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-77036.855</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-77036.855</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-79840.0747</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-64367.40459999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>48981.47100000001</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>88047.41286061221</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>87047.41286061221</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>86604.44586061221</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>84330.78656061221</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>64707.5701606122</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>66126.09596061221</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>50872.42002575382</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>47674.73112575382</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>44925.69172575382</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
